--- a/output/Mozambique_unformatted.xlsx
+++ b/output/Mozambique_unformatted.xlsx
@@ -20998,7 +20998,7 @@
         <v>0</v>
       </c>
       <c r="BM81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
